--- a/MONITOR20-2/GB/Talleres/Taller1/revisiónTaller1.xlsx
+++ b/MONITOR20-2/GB/Talleres/Taller1/revisiónTaller1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267B2BE-B30F-42D2-9566-AB231F510534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02C354-DD40-46E9-9708-73D2C9976DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reporteNotas" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
